--- a/DSA/Sheet/FINAL450.xlsx
+++ b/DSA/Sheet/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24297ff0f399b218/Desktop/DSA/Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\DSA\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829D238A-4FA4-4378-B476-C54C189EC372}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37BE25-D6DA-436E-9F2C-8F9D62E8F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1498,12 +1498,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1519,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,6 +1549,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1860,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="B1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3"/>
@@ -1903,7 +1912,7 @@
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1914,7 +1923,7 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1925,8 +1934,8 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
+      <c r="D8" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="21.1">
@@ -1936,8 +1945,8 @@
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
+      <c r="D9" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="21.1">
@@ -2427,7 +2436,7 @@
       <c r="C56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2438,7 +2447,7 @@
       <c r="C57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2460,7 +2469,7 @@
       <c r="C59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="11" t="s">
         <v>465</v>
       </c>
     </row>
